--- a/RealEstateWebScraping/output.xlsx
+++ b/RealEstateWebScraping/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <x:si>
     <x:t>price</x:t>
   </x:si>
@@ -31,43 +31,52 @@
     <x:t>sqft</x:t>
   </x:si>
   <x:si>
-    <x:t>53 Fire Lane 21, Cayuga, NY 13034</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16 Chaplin Alley, Whitehall, NY 12887</x:t>
-  </x:si>
-  <x:si>
-    <x:t>108 Thielpape Rd, Hurley, NY 12443</x:t>
+    <x:t>700 Oakland Place UNIT 3B, BRONX, NY 10457</x:t>
   </x:si>
   <x:si>
     <x:t>22-12 119th Street, College Point, NY 11356</x:t>
   </x:si>
   <x:si>
-    <x:t>190 E 3rd St, Corning, NY 14830</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38 Harmony Ln, Rochester, NY 14622</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1296 State Highway 7, Brunswick, NY 12180</x:t>
+    <x:t>203 Mason Dr, Syracuse, NY 13219</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100 W 57th St #19K, New York, NY 10019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18 Gardenia Cir, Hopewell Junction, NY 12533</x:t>
   </x:si>
   <x:si>
     <x:t>100 W 57th St APT 12L, New York, NY 10019</x:t>
   </x:si>
   <x:si>
-    <x:t>4432 Union Rd, Cheektowaga, NY 14225</x:t>
-  </x:si>
-  <x:si>
-    <x:t>179-09 137th Avenue, Springfield Gardens, NY 11413</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4076 Ensign Dr, Liverpool, NY 13090</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58 Old Ridge Road, Warwick, NY 10990</x:t>
-  </x:si>
-  <x:si>
-    <x:t>383 Upper North Rd, Lloyd, NY 12528</x:t>
+    <x:t>189 Colebourne Rd, Rochester, NY 14609</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31 Beach Hill Drive, Baiting Hollow, NY 11933</x:t>
+  </x:si>
+  <x:si>
+    <x:t>361 Campbell Hill Road, Middleburgh, NY 12122</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2834 Pee Dee Rd, Bliss, NY 14024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6323 Smokey Hollow Rd, Jamesville, NY 13078</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10 Scharoun Dr, Pulaski, NY 13142</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2 Drumlin Dr, Macedon, NY 14502</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21 Cedar Way, Woodstock, NY 12498</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4107 Buttonwood Trl, Liverpool, NY 13090</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12 Elm Street, Hudson Falls, NY 12839</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -443,194 +452,194 @@
     </x:row>
     <x:row r="2" spans="1:5">
       <x:c r="A2" s="0" t="n">
-        <x:v>99900</x:v>
+        <x:v>69000</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>1044</x:v>
+        <x:v>600</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
       <x:c r="A3" s="0" t="n">
-        <x:v>115000</x:v>
+        <x:v>139000</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>1062</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
       <x:c r="A4" s="0" t="n">
-        <x:v>129000</x:v>
+        <x:v>139900</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>1276</x:v>
+        <x:v>1257</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
       <x:c r="A5" s="0" t="n">
-        <x:v>139000</x:v>
+        <x:v>150000</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>575</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
       <x:c r="A6" s="0" t="n">
-        <x:v>139000</x:v>
+        <x:v>150000</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>2156</x:v>
+        <x:v>960</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
       <x:c r="A7" s="0" t="n">
-        <x:v>139900</x:v>
+        <x:v>160000</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>1197</x:v>
+        <x:v>600</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
       <x:c r="A8" s="0" t="n">
-        <x:v>139900</x:v>
+        <x:v>189900</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="C8" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>1504</x:v>
+        <x:v>1500</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
       <x:c r="A9" s="0" t="n">
-        <x:v>160000</x:v>
+        <x:v>189990</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="C9" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>600</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
       <x:c r="A10" s="0" t="n">
-        <x:v>190000</x:v>
+        <x:v>197500</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="C10" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>1185</x:v>
+        <x:v>1662</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
       <x:c r="A11" s="0" t="n">
-        <x:v>215000</x:v>
+        <x:v>210000</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="C11" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D11" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>1152</x:v>
+        <x:v>1232</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
       <x:c r="A12" s="0" t="n">
-        <x:v>219900</x:v>
+        <x:v>214900</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C12" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D12" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>1620</x:v>
+        <x:v>2478</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
       <x:c r="A13" s="0" t="n">
-        <x:v>289900</x:v>
+        <x:v>219000</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>16</x:v>
@@ -642,12 +651,12 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E13" s="0" t="n">
-        <x:v>1276</x:v>
+        <x:v>1428</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
       <x:c r="A14" s="0" t="n">
-        <x:v>299900</x:v>
+        <x:v>224900</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>17</x:v>
@@ -656,10 +665,61 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D14" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="n">
+        <x:v>1935</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:5">
+      <x:c r="A15" s="0" t="n">
+        <x:v>275000</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="n">
+        <x:v>1253</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:5">
+      <x:c r="A16" s="0" t="n">
+        <x:v>284900</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E14" s="0" t="n">
-        <x:v>2691</x:v>
+      <x:c r="D16" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="n">
+        <x:v>2122</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:5">
+      <x:c r="A17" s="0" t="n">
+        <x:v>287000</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="n">
+        <x:v>2640</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
